--- a/Presupuesto de Proyecto Face Check.xlsx
+++ b/Presupuesto de Proyecto Face Check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0044a0c746e265c/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12CF1197-53D1-4D5D-B9DF-51D333199A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7456E4DB-FE06-4562-9E39-9E83CEE72840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Simple Project Budget" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -329,15 +332,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -824,7 +827,7 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -835,15 +838,15 @@
   </cellStyleXfs>
   <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -856,7 +859,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -871,18 +874,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -907,7 +910,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -957,37 +960,37 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="7" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="5" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -997,7 +1000,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="12" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1007,7 +1010,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="12" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1016,13 +1019,13 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,27 +1043,27 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="5" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="4" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="5" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1072,7 +1075,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1085,77 +1088,77 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="5" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="5" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="5" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="7" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="5" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="5" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="17" fontId="11" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="20" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1196,13 +1199,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7" xr:uid="{096755C3-0BB5-E94E-8E6C-945830891248}"/>
   </cellStyles>
@@ -1394,7 +1397,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Risk Assessment &amp; Control"/>
@@ -1407,7 +1410,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Maintenance Work Order"/>
@@ -1751,12 +1754,12 @@
   </sheetPr>
   <dimension ref="A1:AO433"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="5" customWidth="1"/>
@@ -1776,7 +1779,7 @@
     <col min="21" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="45" customHeight="1" thickBot="1">
+    <row r="1" spans="1:41" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="71" t="s">
         <v>0</v>
@@ -1821,7 +1824,7 @@
       <c r="AN1" s="4"/>
       <c r="AO1" s="4"/>
     </row>
-    <row r="2" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1">
+    <row r="2" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="41" t="s">
         <v>1</v>
@@ -1874,7 +1877,7 @@
       <c r="AN2" s="9"/>
       <c r="AO2" s="9"/>
     </row>
-    <row r="3" spans="1:41" s="10" customFormat="1" ht="51">
+    <row r="3" spans="1:41" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="36" t="s">
         <v>6</v>
@@ -1953,7 +1956,7 @@
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
     </row>
-    <row r="4" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="37" t="s">
         <v>1</v>
@@ -1998,7 +2001,7 @@
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
     </row>
-    <row r="5" spans="1:41" s="10" customFormat="1" ht="40.5">
+    <row r="5" spans="1:41" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="38" t="s">
         <v>24</v>
@@ -2079,7 +2082,7 @@
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
     </row>
-    <row r="6" spans="1:41" s="10" customFormat="1" ht="54">
+    <row r="6" spans="1:41" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="38" t="s">
         <v>28</v>
@@ -2134,7 +2137,7 @@
         <v>126840</v>
       </c>
       <c r="S6" s="70">
-        <f t="shared" ref="S5:S28" si="2">R6-Q6</f>
+        <f t="shared" ref="S6:S28" si="2">R6-Q6</f>
         <v>126840</v>
       </c>
       <c r="T6" s="9"/>
@@ -2160,7 +2163,7 @@
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
     </row>
-    <row r="7" spans="1:41" s="10" customFormat="1" ht="54">
+    <row r="7" spans="1:41" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="38" t="s">
         <v>30</v>
@@ -2241,7 +2244,7 @@
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
     </row>
-    <row r="8" spans="1:41" s="10" customFormat="1" ht="54">
+    <row r="8" spans="1:41" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="38" t="s">
         <v>32</v>
@@ -2266,7 +2269,7 @@
         <v>5417</v>
       </c>
       <c r="J8" s="67">
-        <f t="shared" ref="J6:J28" si="3">H8*I8</f>
+        <f t="shared" ref="J8:J28" si="3">H8*I8</f>
         <v>541700</v>
       </c>
       <c r="K8" s="44">
@@ -2322,7 +2325,7 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
     </row>
-    <row r="9" spans="1:41" s="10" customFormat="1" ht="40.5">
+    <row r="9" spans="1:41" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="38" t="s">
         <v>34</v>
@@ -2403,7 +2406,7 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
     </row>
-    <row r="10" spans="1:41" s="10" customFormat="1" ht="40.5">
+    <row r="10" spans="1:41" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="38" t="s">
         <v>36</v>
@@ -2412,7 +2415,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="43">
@@ -2484,7 +2487,7 @@
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
     </row>
-    <row r="11" spans="1:41" s="10" customFormat="1" ht="40.5">
+    <row r="11" spans="1:41" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="38" t="s">
         <v>39</v>
@@ -2493,7 +2496,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="43">
@@ -2565,7 +2568,7 @@
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
     </row>
-    <row r="12" spans="1:41" s="10" customFormat="1" ht="36.75">
+    <row r="12" spans="1:41" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="38" t="s">
         <v>41</v>
@@ -2574,7 +2577,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="43">
@@ -2646,7 +2649,7 @@
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
     </row>
-    <row r="13" spans="1:41" s="10" customFormat="1" ht="40.5">
+    <row r="13" spans="1:41" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="38" t="s">
         <v>43</v>
@@ -2655,7 +2658,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="43">
@@ -2727,7 +2730,7 @@
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
     </row>
-    <row r="14" spans="1:41" s="10" customFormat="1" ht="54">
+    <row r="14" spans="1:41" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="38" t="s">
         <v>45</v>
@@ -2736,7 +2739,7 @@
         <v>46</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43">
@@ -2808,7 +2811,7 @@
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
     </row>
-    <row r="15" spans="1:41" s="10" customFormat="1" ht="40.5">
+    <row r="15" spans="1:41" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="38" t="s">
         <v>48</v>
@@ -2889,7 +2892,7 @@
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
     </row>
-    <row r="16" spans="1:41" s="10" customFormat="1" ht="40.5">
+    <row r="16" spans="1:41" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="38" t="s">
         <v>50</v>
@@ -2970,7 +2973,7 @@
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
     </row>
-    <row r="17" spans="1:41" s="10" customFormat="1" ht="40.5">
+    <row r="17" spans="1:41" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="38" t="s">
         <v>52</v>
@@ -3051,7 +3054,7 @@
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
     </row>
-    <row r="18" spans="1:41" s="10" customFormat="1" ht="40.5">
+    <row r="18" spans="1:41" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="38" t="s">
         <v>54</v>
@@ -3132,7 +3135,7 @@
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
     </row>
-    <row r="19" spans="1:41" s="10" customFormat="1" ht="54">
+    <row r="19" spans="1:41" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="38" t="s">
         <v>56</v>
@@ -3213,7 +3216,7 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
     </row>
-    <row r="20" spans="1:41" s="10" customFormat="1" ht="54">
+    <row r="20" spans="1:41" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="38" t="s">
         <v>58</v>
@@ -3294,7 +3297,7 @@
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
     </row>
-    <row r="21" spans="1:41" s="10" customFormat="1" ht="27">
+    <row r="21" spans="1:41" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="38" t="s">
         <v>60</v>
@@ -3375,7 +3378,7 @@
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
     </row>
-    <row r="22" spans="1:41" s="10" customFormat="1" ht="40.5">
+    <row r="22" spans="1:41" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="38" t="s">
         <v>62</v>
@@ -3456,7 +3459,7 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
     </row>
-    <row r="23" spans="1:41" s="10" customFormat="1" ht="40.5">
+    <row r="23" spans="1:41" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="38" t="s">
         <v>64</v>
@@ -3537,7 +3540,7 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
     </row>
-    <row r="24" spans="1:41" s="10" customFormat="1" ht="24.75">
+    <row r="24" spans="1:41" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="38" t="s">
         <v>66</v>
@@ -3618,7 +3621,7 @@
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
     </row>
-    <row r="25" spans="1:41" s="10" customFormat="1" ht="27">
+    <row r="25" spans="1:41" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="38" t="s">
         <v>68</v>
@@ -3699,7 +3702,7 @@
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
     </row>
-    <row r="26" spans="1:41" s="10" customFormat="1" ht="40.5">
+    <row r="26" spans="1:41" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="38" t="s">
         <v>70</v>
@@ -3780,7 +3783,7 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
     </row>
-    <row r="27" spans="1:41" s="10" customFormat="1" ht="40.5">
+    <row r="27" spans="1:41" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="38" t="s">
         <v>72</v>
@@ -3861,7 +3864,7 @@
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
     </row>
-    <row r="28" spans="1:41" s="10" customFormat="1" ht="24.75">
+    <row r="28" spans="1:41" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="38" t="s">
         <v>74</v>
@@ -3942,7 +3945,7 @@
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
     </row>
-    <row r="29" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
+    <row r="29" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="22" t="s">
         <v>76</v>
@@ -4017,7 +4020,7 @@
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
     </row>
-    <row r="30" spans="1:41" s="10" customFormat="1" ht="11.1" customHeight="1">
+    <row r="30" spans="1:41" s="10" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -4060,7 +4063,7 @@
       <c r="AN30" s="9"/>
       <c r="AO30" s="9"/>
     </row>
-    <row r="31" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1">
+    <row r="31" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
@@ -4103,7 +4106,7 @@
       <c r="AN31" s="9"/>
       <c r="AO31" s="9"/>
     </row>
-    <row r="32" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1">
+    <row r="32" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
@@ -4146,7 +4149,7 @@
       <c r="AN32" s="9"/>
       <c r="AO32" s="9"/>
     </row>
-    <row r="33" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
+    <row r="33" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -4189,7 +4192,7 @@
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
     </row>
-    <row r="34" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
+    <row r="34" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="77"/>
       <c r="C34" s="77"/>
@@ -4232,7 +4235,7 @@
       <c r="AN34" s="9"/>
       <c r="AO34" s="9"/>
     </row>
-    <row r="35" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
+    <row r="35" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="77"/>
       <c r="C35" s="77"/>
@@ -4275,7 +4278,7 @@
       <c r="AN35" s="9"/>
       <c r="AO35" s="9"/>
     </row>
-    <row r="36" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
+    <row r="36" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="77"/>
       <c r="C36" s="77"/>
@@ -4318,7 +4321,7 @@
       <c r="AN36" s="9"/>
       <c r="AO36" s="9"/>
     </row>
-    <row r="37" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
+    <row r="37" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="77"/>
       <c r="C37" s="77"/>
@@ -4361,7 +4364,7 @@
       <c r="AN37" s="9"/>
       <c r="AO37" s="9"/>
     </row>
-    <row r="38" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
+    <row r="38" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="77"/>
       <c r="C38" s="77"/>
@@ -4404,7 +4407,7 @@
       <c r="AN38" s="9"/>
       <c r="AO38" s="9"/>
     </row>
-    <row r="39" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
+    <row r="39" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="77"/>
       <c r="C39" s="77"/>
@@ -4447,7 +4450,7 @@
       <c r="AN39" s="9"/>
       <c r="AO39" s="9"/>
     </row>
-    <row r="40" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
+    <row r="40" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="77"/>
       <c r="C40" s="77"/>
@@ -4490,7 +4493,7 @@
       <c r="AN40" s="9"/>
       <c r="AO40" s="9"/>
     </row>
-    <row r="41" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
+    <row r="41" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="77"/>
       <c r="C41" s="77"/>
@@ -4533,7 +4536,7 @@
       <c r="AN41" s="9"/>
       <c r="AO41" s="9"/>
     </row>
-    <row r="42" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
+    <row r="42" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="77"/>
       <c r="C42" s="77"/>
@@ -4576,7 +4579,7 @@
       <c r="AN42" s="9"/>
       <c r="AO42" s="9"/>
     </row>
-    <row r="43" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
+    <row r="43" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="73" t="s">
         <v>76</v>
@@ -4645,7 +4648,7 @@
       <c r="AN43" s="9"/>
       <c r="AO43" s="9"/>
     </row>
-    <row r="44" spans="1:41" s="4" customFormat="1" ht="21" customHeight="1">
+    <row r="44" spans="1:41" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -4665,7 +4668,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:41" ht="50.1" customHeight="1">
+    <row r="45" spans="1:41" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="100"/>
       <c r="C45" s="100"/>
@@ -4708,7 +4711,7 @@
       <c r="AN45" s="4"/>
       <c r="AO45" s="4"/>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -4751,7 +4754,7 @@
       <c r="AN46" s="4"/>
       <c r="AO46" s="4"/>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -4794,7 +4797,7 @@
       <c r="AN47" s="4"/>
       <c r="AO47" s="4"/>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4837,7 +4840,7 @@
       <c r="AN48" s="4"/>
       <c r="AO48" s="4"/>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -4880,7 +4883,7 @@
       <c r="AN49" s="4"/>
       <c r="AO49" s="4"/>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -4923,7 +4926,7 @@
       <c r="AN50" s="4"/>
       <c r="AO50" s="4"/>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -4966,7 +4969,7 @@
       <c r="AN51" s="4"/>
       <c r="AO51" s="4"/>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -5009,7 +5012,7 @@
       <c r="AN52" s="4"/>
       <c r="AO52" s="4"/>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -5052,7 +5055,7 @@
       <c r="AN53" s="4"/>
       <c r="AO53" s="4"/>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -5095,7 +5098,7 @@
       <c r="AN54" s="4"/>
       <c r="AO54" s="4"/>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -5138,7 +5141,7 @@
       <c r="AN55" s="4"/>
       <c r="AO55" s="4"/>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -5181,7 +5184,7 @@
       <c r="AN56" s="4"/>
       <c r="AO56" s="4"/>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -5224,7 +5227,7 @@
       <c r="AN57" s="4"/>
       <c r="AO57" s="4"/>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -5267,7 +5270,7 @@
       <c r="AN58" s="4"/>
       <c r="AO58" s="4"/>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -5310,7 +5313,7 @@
       <c r="AN59" s="4"/>
       <c r="AO59" s="4"/>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -5353,7 +5356,7 @@
       <c r="AN60" s="4"/>
       <c r="AO60" s="4"/>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -5396,7 +5399,7 @@
       <c r="AN61" s="4"/>
       <c r="AO61" s="4"/>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -5439,7 +5442,7 @@
       <c r="AN62" s="4"/>
       <c r="AO62" s="4"/>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -5482,7 +5485,7 @@
       <c r="AN63" s="4"/>
       <c r="AO63" s="4"/>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -5525,7 +5528,7 @@
       <c r="AN64" s="4"/>
       <c r="AO64" s="4"/>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -5568,7 +5571,7 @@
       <c r="AN65" s="4"/>
       <c r="AO65" s="4"/>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -5611,7 +5614,7 @@
       <c r="AN66" s="4"/>
       <c r="AO66" s="4"/>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -5654,7 +5657,7 @@
       <c r="AN67" s="4"/>
       <c r="AO67" s="4"/>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -5697,7 +5700,7 @@
       <c r="AN68" s="4"/>
       <c r="AO68" s="4"/>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -5740,7 +5743,7 @@
       <c r="AN69" s="4"/>
       <c r="AO69" s="4"/>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -5783,7 +5786,7 @@
       <c r="AN70" s="4"/>
       <c r="AO70" s="4"/>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -5826,7 +5829,7 @@
       <c r="AN71" s="4"/>
       <c r="AO71" s="4"/>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -5869,7 +5872,7 @@
       <c r="AN72" s="4"/>
       <c r="AO72" s="4"/>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -5912,7 +5915,7 @@
       <c r="AN73" s="4"/>
       <c r="AO73" s="4"/>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -5955,7 +5958,7 @@
       <c r="AN74" s="4"/>
       <c r="AO74" s="4"/>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -5998,7 +6001,7 @@
       <c r="AN75" s="4"/>
       <c r="AO75" s="4"/>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -6041,7 +6044,7 @@
       <c r="AN76" s="4"/>
       <c r="AO76" s="4"/>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -6084,7 +6087,7 @@
       <c r="AN77" s="4"/>
       <c r="AO77" s="4"/>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6127,7 +6130,7 @@
       <c r="AN78" s="4"/>
       <c r="AO78" s="4"/>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6170,7 +6173,7 @@
       <c r="AN79" s="4"/>
       <c r="AO79" s="4"/>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6213,7 +6216,7 @@
       <c r="AN80" s="4"/>
       <c r="AO80" s="4"/>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6256,7 +6259,7 @@
       <c r="AN81" s="4"/>
       <c r="AO81" s="4"/>
     </row>
-    <row r="82" spans="1:41">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6299,7 +6302,7 @@
       <c r="AN82" s="4"/>
       <c r="AO82" s="4"/>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6342,7 +6345,7 @@
       <c r="AN83" s="4"/>
       <c r="AO83" s="4"/>
     </row>
-    <row r="84" spans="1:41">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6385,7 +6388,7 @@
       <c r="AN84" s="4"/>
       <c r="AO84" s="4"/>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6428,7 +6431,7 @@
       <c r="AN85" s="4"/>
       <c r="AO85" s="4"/>
     </row>
-    <row r="86" spans="1:41">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6471,7 +6474,7 @@
       <c r="AN86" s="4"/>
       <c r="AO86" s="4"/>
     </row>
-    <row r="87" spans="1:41">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6514,7 +6517,7 @@
       <c r="AN87" s="4"/>
       <c r="AO87" s="4"/>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6557,7 +6560,7 @@
       <c r="AN88" s="4"/>
       <c r="AO88" s="4"/>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6600,7 +6603,7 @@
       <c r="AN89" s="4"/>
       <c r="AO89" s="4"/>
     </row>
-    <row r="90" spans="1:41">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6643,7 +6646,7 @@
       <c r="AN90" s="4"/>
       <c r="AO90" s="4"/>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -6666,7 +6669,7 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -6689,7 +6692,7 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -6712,7 +6715,7 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -6735,7 +6738,7 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -6758,7 +6761,7 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -6781,7 +6784,7 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -6804,7 +6807,7 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -6827,7 +6830,7 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6850,7 +6853,7 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -6873,7 +6876,7 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -6896,7 +6899,7 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -6919,7 +6922,7 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -6942,7 +6945,7 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -6965,7 +6968,7 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -6988,7 +6991,7 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -7011,7 +7014,7 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -7034,7 +7037,7 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -7057,7 +7060,7 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -7080,7 +7083,7 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -7103,7 +7106,7 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -7126,7 +7129,7 @@
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -7149,7 +7152,7 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -7172,7 +7175,7 @@
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -7195,7 +7198,7 @@
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -7218,7 +7221,7 @@
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -7241,7 +7244,7 @@
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -7264,7 +7267,7 @@
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -7287,7 +7290,7 @@
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -7310,7 +7313,7 @@
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -7333,7 +7336,7 @@
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -7356,7 +7359,7 @@
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -7379,7 +7382,7 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -7402,7 +7405,7 @@
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -7425,7 +7428,7 @@
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -7448,7 +7451,7 @@
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -7471,7 +7474,7 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -7494,7 +7497,7 @@
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -7517,7 +7520,7 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -7540,7 +7543,7 @@
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -7563,7 +7566,7 @@
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -7586,7 +7589,7 @@
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -7609,7 +7612,7 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -7632,7 +7635,7 @@
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -7655,7 +7658,7 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -7678,7 +7681,7 @@
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -7701,7 +7704,7 @@
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -7724,7 +7727,7 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -7747,7 +7750,7 @@
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -7770,7 +7773,7 @@
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -7793,7 +7796,7 @@
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -7816,7 +7819,7 @@
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -7839,7 +7842,7 @@
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -7862,7 +7865,7 @@
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -7885,7 +7888,7 @@
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -7908,7 +7911,7 @@
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -7931,7 +7934,7 @@
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -7954,7 +7957,7 @@
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -7977,7 +7980,7 @@
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -8000,7 +8003,7 @@
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -8023,7 +8026,7 @@
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -8046,7 +8049,7 @@
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -8069,7 +8072,7 @@
       <c r="T152" s="4"/>
       <c r="U152" s="4"/>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -8092,7 +8095,7 @@
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -8115,7 +8118,7 @@
       <c r="T154" s="4"/>
       <c r="U154" s="4"/>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -8138,7 +8141,7 @@
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -8161,7 +8164,7 @@
       <c r="T156" s="4"/>
       <c r="U156" s="4"/>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -8184,7 +8187,7 @@
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -8207,7 +8210,7 @@
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -8230,7 +8233,7 @@
       <c r="T159" s="4"/>
       <c r="U159" s="4"/>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -8253,7 +8256,7 @@
       <c r="T160" s="4"/>
       <c r="U160" s="4"/>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -8276,7 +8279,7 @@
       <c r="T161" s="4"/>
       <c r="U161" s="4"/>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -8299,7 +8302,7 @@
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -8322,7 +8325,7 @@
       <c r="T163" s="4"/>
       <c r="U163" s="4"/>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -8345,7 +8348,7 @@
       <c r="T164" s="4"/>
       <c r="U164" s="4"/>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -8368,7 +8371,7 @@
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -8391,7 +8394,7 @@
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -8414,7 +8417,7 @@
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -8437,7 +8440,7 @@
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -8460,7 +8463,7 @@
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -8483,7 +8486,7 @@
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -8506,7 +8509,7 @@
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -8529,7 +8532,7 @@
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -8552,7 +8555,7 @@
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -8575,7 +8578,7 @@
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -8598,7 +8601,7 @@
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -8621,7 +8624,7 @@
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -8644,7 +8647,7 @@
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -8667,7 +8670,7 @@
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -8690,7 +8693,7 @@
       <c r="T179" s="4"/>
       <c r="U179" s="4"/>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -8713,7 +8716,7 @@
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -8736,7 +8739,7 @@
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -8759,7 +8762,7 @@
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -8782,7 +8785,7 @@
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -8805,7 +8808,7 @@
       <c r="T184" s="4"/>
       <c r="U184" s="4"/>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -8828,7 +8831,7 @@
       <c r="T185" s="4"/>
       <c r="U185" s="4"/>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -8851,7 +8854,7 @@
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -8874,7 +8877,7 @@
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -8897,7 +8900,7 @@
       <c r="T188" s="4"/>
       <c r="U188" s="4"/>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -8920,7 +8923,7 @@
       <c r="T189" s="4"/>
       <c r="U189" s="4"/>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -8943,7 +8946,7 @@
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -8966,7 +8969,7 @@
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -8989,7 +8992,7 @@
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -9012,7 +9015,7 @@
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -9035,7 +9038,7 @@
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -9058,7 +9061,7 @@
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -9081,7 +9084,7 @@
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -9104,7 +9107,7 @@
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -9127,7 +9130,7 @@
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -9150,7 +9153,7 @@
       <c r="T199" s="4"/>
       <c r="U199" s="4"/>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -9173,7 +9176,7 @@
       <c r="T200" s="4"/>
       <c r="U200" s="4"/>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -9196,7 +9199,7 @@
       <c r="T201" s="4"/>
       <c r="U201" s="4"/>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -9219,7 +9222,7 @@
       <c r="T202" s="4"/>
       <c r="U202" s="4"/>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -9242,7 +9245,7 @@
       <c r="T203" s="4"/>
       <c r="U203" s="4"/>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -9265,7 +9268,7 @@
       <c r="T204" s="4"/>
       <c r="U204" s="4"/>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -9288,7 +9291,7 @@
       <c r="T205" s="4"/>
       <c r="U205" s="4"/>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -9311,7 +9314,7 @@
       <c r="T206" s="4"/>
       <c r="U206" s="4"/>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -9334,7 +9337,7 @@
       <c r="T207" s="4"/>
       <c r="U207" s="4"/>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -9357,7 +9360,7 @@
       <c r="T208" s="4"/>
       <c r="U208" s="4"/>
     </row>
-    <row r="209" spans="1:21">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -9380,7 +9383,7 @@
       <c r="T209" s="4"/>
       <c r="U209" s="4"/>
     </row>
-    <row r="210" spans="1:21">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -9403,7 +9406,7 @@
       <c r="T210" s="4"/>
       <c r="U210" s="4"/>
     </row>
-    <row r="211" spans="1:21">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -9426,7 +9429,7 @@
       <c r="T211" s="4"/>
       <c r="U211" s="4"/>
     </row>
-    <row r="212" spans="1:21">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -9449,7 +9452,7 @@
       <c r="T212" s="4"/>
       <c r="U212" s="4"/>
     </row>
-    <row r="213" spans="1:21">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -9472,7 +9475,7 @@
       <c r="T213" s="4"/>
       <c r="U213" s="4"/>
     </row>
-    <row r="214" spans="1:21">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -9495,7 +9498,7 @@
       <c r="T214" s="4"/>
       <c r="U214" s="4"/>
     </row>
-    <row r="215" spans="1:21">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -9518,7 +9521,7 @@
       <c r="T215" s="4"/>
       <c r="U215" s="4"/>
     </row>
-    <row r="216" spans="1:21">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -9541,7 +9544,7 @@
       <c r="T216" s="4"/>
       <c r="U216" s="4"/>
     </row>
-    <row r="217" spans="1:21">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -9564,7 +9567,7 @@
       <c r="T217" s="4"/>
       <c r="U217" s="4"/>
     </row>
-    <row r="218" spans="1:21">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -9587,7 +9590,7 @@
       <c r="T218" s="4"/>
       <c r="U218" s="4"/>
     </row>
-    <row r="219" spans="1:21">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -9610,7 +9613,7 @@
       <c r="T219" s="4"/>
       <c r="U219" s="4"/>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -9633,7 +9636,7 @@
       <c r="T220" s="4"/>
       <c r="U220" s="4"/>
     </row>
-    <row r="221" spans="1:21">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -9656,7 +9659,7 @@
       <c r="T221" s="4"/>
       <c r="U221" s="4"/>
     </row>
-    <row r="222" spans="1:21">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -9679,7 +9682,7 @@
       <c r="T222" s="4"/>
       <c r="U222" s="4"/>
     </row>
-    <row r="223" spans="1:21">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -9702,7 +9705,7 @@
       <c r="T223" s="4"/>
       <c r="U223" s="4"/>
     </row>
-    <row r="224" spans="1:21">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -9725,7 +9728,7 @@
       <c r="T224" s="4"/>
       <c r="U224" s="4"/>
     </row>
-    <row r="225" spans="1:21">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -9748,7 +9751,7 @@
       <c r="T225" s="4"/>
       <c r="U225" s="4"/>
     </row>
-    <row r="226" spans="1:21">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -9771,7 +9774,7 @@
       <c r="T226" s="4"/>
       <c r="U226" s="4"/>
     </row>
-    <row r="227" spans="1:21">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -9794,7 +9797,7 @@
       <c r="T227" s="4"/>
       <c r="U227" s="4"/>
     </row>
-    <row r="228" spans="1:21">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -9817,7 +9820,7 @@
       <c r="T228" s="4"/>
       <c r="U228" s="4"/>
     </row>
-    <row r="229" spans="1:21">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -9840,7 +9843,7 @@
       <c r="T229" s="4"/>
       <c r="U229" s="4"/>
     </row>
-    <row r="230" spans="1:21">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -9863,7 +9866,7 @@
       <c r="T230" s="4"/>
       <c r="U230" s="4"/>
     </row>
-    <row r="231" spans="1:21">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -9886,7 +9889,7 @@
       <c r="T231" s="4"/>
       <c r="U231" s="4"/>
     </row>
-    <row r="232" spans="1:21">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -9909,7 +9912,7 @@
       <c r="T232" s="4"/>
       <c r="U232" s="4"/>
     </row>
-    <row r="233" spans="1:21">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -9932,7 +9935,7 @@
       <c r="T233" s="4"/>
       <c r="U233" s="4"/>
     </row>
-    <row r="234" spans="1:21">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -9955,7 +9958,7 @@
       <c r="T234" s="4"/>
       <c r="U234" s="4"/>
     </row>
-    <row r="235" spans="1:21">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -9978,7 +9981,7 @@
       <c r="T235" s="4"/>
       <c r="U235" s="4"/>
     </row>
-    <row r="236" spans="1:21">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -10001,7 +10004,7 @@
       <c r="T236" s="4"/>
       <c r="U236" s="4"/>
     </row>
-    <row r="237" spans="1:21">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -10024,7 +10027,7 @@
       <c r="T237" s="4"/>
       <c r="U237" s="4"/>
     </row>
-    <row r="238" spans="1:21">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -10047,7 +10050,7 @@
       <c r="T238" s="4"/>
       <c r="U238" s="4"/>
     </row>
-    <row r="239" spans="1:21">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -10070,7 +10073,7 @@
       <c r="T239" s="4"/>
       <c r="U239" s="4"/>
     </row>
-    <row r="240" spans="1:21">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -10093,7 +10096,7 @@
       <c r="T240" s="4"/>
       <c r="U240" s="4"/>
     </row>
-    <row r="241" spans="1:21">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -10116,7 +10119,7 @@
       <c r="T241" s="4"/>
       <c r="U241" s="4"/>
     </row>
-    <row r="242" spans="1:21">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -10139,7 +10142,7 @@
       <c r="T242" s="4"/>
       <c r="U242" s="4"/>
     </row>
-    <row r="243" spans="1:21">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -10162,7 +10165,7 @@
       <c r="T243" s="4"/>
       <c r="U243" s="4"/>
     </row>
-    <row r="244" spans="1:21">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -10185,7 +10188,7 @@
       <c r="T244" s="4"/>
       <c r="U244" s="4"/>
     </row>
-    <row r="245" spans="1:21">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -10208,7 +10211,7 @@
       <c r="T245" s="4"/>
       <c r="U245" s="4"/>
     </row>
-    <row r="246" spans="1:21">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -10231,7 +10234,7 @@
       <c r="T246" s="4"/>
       <c r="U246" s="4"/>
     </row>
-    <row r="247" spans="1:21">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -10254,7 +10257,7 @@
       <c r="T247" s="4"/>
       <c r="U247" s="4"/>
     </row>
-    <row r="248" spans="1:21">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -10277,7 +10280,7 @@
       <c r="T248" s="4"/>
       <c r="U248" s="4"/>
     </row>
-    <row r="249" spans="1:21">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -10300,7 +10303,7 @@
       <c r="T249" s="4"/>
       <c r="U249" s="4"/>
     </row>
-    <row r="250" spans="1:21">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -10323,7 +10326,7 @@
       <c r="T250" s="4"/>
       <c r="U250" s="4"/>
     </row>
-    <row r="251" spans="1:21">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -10346,7 +10349,7 @@
       <c r="T251" s="4"/>
       <c r="U251" s="4"/>
     </row>
-    <row r="252" spans="1:21">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -10369,7 +10372,7 @@
       <c r="T252" s="4"/>
       <c r="U252" s="4"/>
     </row>
-    <row r="253" spans="1:21">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -10392,7 +10395,7 @@
       <c r="T253" s="4"/>
       <c r="U253" s="4"/>
     </row>
-    <row r="254" spans="1:21">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -10415,7 +10418,7 @@
       <c r="T254" s="4"/>
       <c r="U254" s="4"/>
     </row>
-    <row r="255" spans="1:21">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -10438,7 +10441,7 @@
       <c r="T255" s="4"/>
       <c r="U255" s="4"/>
     </row>
-    <row r="256" spans="1:21">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -10461,7 +10464,7 @@
       <c r="T256" s="4"/>
       <c r="U256" s="4"/>
     </row>
-    <row r="257" spans="1:21">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -10484,7 +10487,7 @@
       <c r="T257" s="4"/>
       <c r="U257" s="4"/>
     </row>
-    <row r="258" spans="1:21">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -10507,7 +10510,7 @@
       <c r="T258" s="4"/>
       <c r="U258" s="4"/>
     </row>
-    <row r="259" spans="1:21">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -10530,7 +10533,7 @@
       <c r="T259" s="4"/>
       <c r="U259" s="4"/>
     </row>
-    <row r="260" spans="1:21">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -10553,7 +10556,7 @@
       <c r="T260" s="4"/>
       <c r="U260" s="4"/>
     </row>
-    <row r="261" spans="1:21">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -10576,7 +10579,7 @@
       <c r="T261" s="4"/>
       <c r="U261" s="4"/>
     </row>
-    <row r="262" spans="1:21">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -10599,7 +10602,7 @@
       <c r="T262" s="4"/>
       <c r="U262" s="4"/>
     </row>
-    <row r="263" spans="1:21">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -10622,7 +10625,7 @@
       <c r="T263" s="4"/>
       <c r="U263" s="4"/>
     </row>
-    <row r="264" spans="1:21">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -10645,7 +10648,7 @@
       <c r="T264" s="4"/>
       <c r="U264" s="4"/>
     </row>
-    <row r="265" spans="1:21">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -10668,7 +10671,7 @@
       <c r="T265" s="4"/>
       <c r="U265" s="4"/>
     </row>
-    <row r="266" spans="1:21">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -10691,7 +10694,7 @@
       <c r="T266" s="4"/>
       <c r="U266" s="4"/>
     </row>
-    <row r="267" spans="1:21">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -10714,7 +10717,7 @@
       <c r="T267" s="4"/>
       <c r="U267" s="4"/>
     </row>
-    <row r="268" spans="1:21">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -10737,7 +10740,7 @@
       <c r="T268" s="4"/>
       <c r="U268" s="4"/>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -10760,7 +10763,7 @@
       <c r="T269" s="4"/>
       <c r="U269" s="4"/>
     </row>
-    <row r="270" spans="1:21">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -10783,7 +10786,7 @@
       <c r="T270" s="4"/>
       <c r="U270" s="4"/>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -10806,7 +10809,7 @@
       <c r="T271" s="4"/>
       <c r="U271" s="4"/>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -10829,7 +10832,7 @@
       <c r="T272" s="4"/>
       <c r="U272" s="4"/>
     </row>
-    <row r="273" spans="1:21">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -10852,7 +10855,7 @@
       <c r="T273" s="4"/>
       <c r="U273" s="4"/>
     </row>
-    <row r="274" spans="1:21">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -10875,7 +10878,7 @@
       <c r="T274" s="4"/>
       <c r="U274" s="4"/>
     </row>
-    <row r="275" spans="1:21">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -10898,7 +10901,7 @@
       <c r="T275" s="4"/>
       <c r="U275" s="4"/>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -10921,7 +10924,7 @@
       <c r="T276" s="4"/>
       <c r="U276" s="4"/>
     </row>
-    <row r="277" spans="1:21">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -10944,7 +10947,7 @@
       <c r="T277" s="4"/>
       <c r="U277" s="4"/>
     </row>
-    <row r="278" spans="1:21">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -10967,7 +10970,7 @@
       <c r="T278" s="4"/>
       <c r="U278" s="4"/>
     </row>
-    <row r="279" spans="1:21">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -10990,7 +10993,7 @@
       <c r="T279" s="4"/>
       <c r="U279" s="4"/>
     </row>
-    <row r="280" spans="1:21">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -11013,7 +11016,7 @@
       <c r="T280" s="4"/>
       <c r="U280" s="4"/>
     </row>
-    <row r="281" spans="1:21">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -11036,7 +11039,7 @@
       <c r="T281" s="4"/>
       <c r="U281" s="4"/>
     </row>
-    <row r="282" spans="1:21">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -11059,7 +11062,7 @@
       <c r="T282" s="4"/>
       <c r="U282" s="4"/>
     </row>
-    <row r="283" spans="1:21">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -11082,7 +11085,7 @@
       <c r="T283" s="4"/>
       <c r="U283" s="4"/>
     </row>
-    <row r="284" spans="1:21">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -11105,7 +11108,7 @@
       <c r="T284" s="4"/>
       <c r="U284" s="4"/>
     </row>
-    <row r="285" spans="1:21">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -11128,7 +11131,7 @@
       <c r="T285" s="4"/>
       <c r="U285" s="4"/>
     </row>
-    <row r="286" spans="1:21">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -11151,7 +11154,7 @@
       <c r="T286" s="4"/>
       <c r="U286" s="4"/>
     </row>
-    <row r="287" spans="1:21">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -11174,7 +11177,7 @@
       <c r="T287" s="4"/>
       <c r="U287" s="4"/>
     </row>
-    <row r="288" spans="1:21">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -11197,7 +11200,7 @@
       <c r="T288" s="4"/>
       <c r="U288" s="4"/>
     </row>
-    <row r="289" spans="1:21">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -11220,7 +11223,7 @@
       <c r="T289" s="4"/>
       <c r="U289" s="4"/>
     </row>
-    <row r="290" spans="1:21">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -11243,7 +11246,7 @@
       <c r="T290" s="4"/>
       <c r="U290" s="4"/>
     </row>
-    <row r="291" spans="1:21">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -11266,7 +11269,7 @@
       <c r="T291" s="4"/>
       <c r="U291" s="4"/>
     </row>
-    <row r="292" spans="1:21">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -11289,7 +11292,7 @@
       <c r="T292" s="4"/>
       <c r="U292" s="4"/>
     </row>
-    <row r="293" spans="1:21">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -11312,7 +11315,7 @@
       <c r="T293" s="4"/>
       <c r="U293" s="4"/>
     </row>
-    <row r="294" spans="1:21">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -11335,7 +11338,7 @@
       <c r="T294" s="4"/>
       <c r="U294" s="4"/>
     </row>
-    <row r="295" spans="1:21">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -11358,7 +11361,7 @@
       <c r="T295" s="4"/>
       <c r="U295" s="4"/>
     </row>
-    <row r="296" spans="1:21">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -11381,7 +11384,7 @@
       <c r="T296" s="4"/>
       <c r="U296" s="4"/>
     </row>
-    <row r="297" spans="1:21">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -11404,7 +11407,7 @@
       <c r="T297" s="4"/>
       <c r="U297" s="4"/>
     </row>
-    <row r="298" spans="1:21">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -11427,7 +11430,7 @@
       <c r="T298" s="4"/>
       <c r="U298" s="4"/>
     </row>
-    <row r="299" spans="1:21">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -11450,7 +11453,7 @@
       <c r="T299" s="4"/>
       <c r="U299" s="4"/>
     </row>
-    <row r="300" spans="1:21">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -11473,7 +11476,7 @@
       <c r="T300" s="4"/>
       <c r="U300" s="4"/>
     </row>
-    <row r="301" spans="1:21">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -11496,7 +11499,7 @@
       <c r="T301" s="4"/>
       <c r="U301" s="4"/>
     </row>
-    <row r="302" spans="1:21">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -11519,7 +11522,7 @@
       <c r="T302" s="4"/>
       <c r="U302" s="4"/>
     </row>
-    <row r="303" spans="1:21">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -11542,7 +11545,7 @@
       <c r="T303" s="4"/>
       <c r="U303" s="4"/>
     </row>
-    <row r="304" spans="1:21">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -11565,7 +11568,7 @@
       <c r="T304" s="4"/>
       <c r="U304" s="4"/>
     </row>
-    <row r="305" spans="1:21">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -11588,7 +11591,7 @@
       <c r="T305" s="4"/>
       <c r="U305" s="4"/>
     </row>
-    <row r="306" spans="1:21">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -11611,7 +11614,7 @@
       <c r="T306" s="4"/>
       <c r="U306" s="4"/>
     </row>
-    <row r="307" spans="1:21">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -11634,7 +11637,7 @@
       <c r="T307" s="4"/>
       <c r="U307" s="4"/>
     </row>
-    <row r="308" spans="1:21">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -11657,7 +11660,7 @@
       <c r="T308" s="4"/>
       <c r="U308" s="4"/>
     </row>
-    <row r="309" spans="1:21">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -11680,7 +11683,7 @@
       <c r="T309" s="4"/>
       <c r="U309" s="4"/>
     </row>
-    <row r="310" spans="1:21">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -11703,7 +11706,7 @@
       <c r="T310" s="4"/>
       <c r="U310" s="4"/>
     </row>
-    <row r="311" spans="1:21">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -11726,7 +11729,7 @@
       <c r="T311" s="4"/>
       <c r="U311" s="4"/>
     </row>
-    <row r="312" spans="1:21">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -11749,7 +11752,7 @@
       <c r="T312" s="4"/>
       <c r="U312" s="4"/>
     </row>
-    <row r="313" spans="1:21">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -11772,7 +11775,7 @@
       <c r="T313" s="4"/>
       <c r="U313" s="4"/>
     </row>
-    <row r="314" spans="1:21">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -11795,7 +11798,7 @@
       <c r="T314" s="4"/>
       <c r="U314" s="4"/>
     </row>
-    <row r="315" spans="1:21">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -11818,7 +11821,7 @@
       <c r="T315" s="4"/>
       <c r="U315" s="4"/>
     </row>
-    <row r="316" spans="1:21">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -11841,7 +11844,7 @@
       <c r="T316" s="4"/>
       <c r="U316" s="4"/>
     </row>
-    <row r="317" spans="1:21">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -11864,7 +11867,7 @@
       <c r="T317" s="4"/>
       <c r="U317" s="4"/>
     </row>
-    <row r="318" spans="1:21">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -11887,7 +11890,7 @@
       <c r="T318" s="4"/>
       <c r="U318" s="4"/>
     </row>
-    <row r="319" spans="1:21">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -11910,7 +11913,7 @@
       <c r="T319" s="4"/>
       <c r="U319" s="4"/>
     </row>
-    <row r="320" spans="1:21">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -11933,7 +11936,7 @@
       <c r="T320" s="4"/>
       <c r="U320" s="4"/>
     </row>
-    <row r="321" spans="1:21">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -11956,7 +11959,7 @@
       <c r="T321" s="4"/>
       <c r="U321" s="4"/>
     </row>
-    <row r="322" spans="1:21">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -11979,7 +11982,7 @@
       <c r="T322" s="4"/>
       <c r="U322" s="4"/>
     </row>
-    <row r="323" spans="1:21">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -12002,7 +12005,7 @@
       <c r="T323" s="4"/>
       <c r="U323" s="4"/>
     </row>
-    <row r="324" spans="1:21">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -12025,7 +12028,7 @@
       <c r="T324" s="4"/>
       <c r="U324" s="4"/>
     </row>
-    <row r="325" spans="1:21">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -12048,7 +12051,7 @@
       <c r="T325" s="4"/>
       <c r="U325" s="4"/>
     </row>
-    <row r="326" spans="1:21">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -12071,7 +12074,7 @@
       <c r="T326" s="4"/>
       <c r="U326" s="4"/>
     </row>
-    <row r="327" spans="1:21">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -12094,7 +12097,7 @@
       <c r="T327" s="4"/>
       <c r="U327" s="4"/>
     </row>
-    <row r="328" spans="1:21">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -12117,7 +12120,7 @@
       <c r="T328" s="4"/>
       <c r="U328" s="4"/>
     </row>
-    <row r="329" spans="1:21">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -12140,7 +12143,7 @@
       <c r="T329" s="4"/>
       <c r="U329" s="4"/>
     </row>
-    <row r="330" spans="1:21">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -12163,7 +12166,7 @@
       <c r="T330" s="4"/>
       <c r="U330" s="4"/>
     </row>
-    <row r="331" spans="1:21">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -12186,7 +12189,7 @@
       <c r="T331" s="4"/>
       <c r="U331" s="4"/>
     </row>
-    <row r="332" spans="1:21">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -12209,7 +12212,7 @@
       <c r="T332" s="4"/>
       <c r="U332" s="4"/>
     </row>
-    <row r="333" spans="1:21">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -12232,7 +12235,7 @@
       <c r="T333" s="4"/>
       <c r="U333" s="4"/>
     </row>
-    <row r="334" spans="1:21">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -12255,7 +12258,7 @@
       <c r="T334" s="4"/>
       <c r="U334" s="4"/>
     </row>
-    <row r="335" spans="1:21">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -12278,7 +12281,7 @@
       <c r="T335" s="4"/>
       <c r="U335" s="4"/>
     </row>
-    <row r="336" spans="1:21">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -12301,7 +12304,7 @@
       <c r="T336" s="4"/>
       <c r="U336" s="4"/>
     </row>
-    <row r="337" spans="1:21">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -12324,7 +12327,7 @@
       <c r="T337" s="4"/>
       <c r="U337" s="4"/>
     </row>
-    <row r="338" spans="1:21">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -12347,7 +12350,7 @@
       <c r="T338" s="4"/>
       <c r="U338" s="4"/>
     </row>
-    <row r="339" spans="1:21">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -12370,7 +12373,7 @@
       <c r="T339" s="4"/>
       <c r="U339" s="4"/>
     </row>
-    <row r="340" spans="1:21">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -12393,7 +12396,7 @@
       <c r="T340" s="4"/>
       <c r="U340" s="4"/>
     </row>
-    <row r="341" spans="1:21">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -12416,7 +12419,7 @@
       <c r="T341" s="4"/>
       <c r="U341" s="4"/>
     </row>
-    <row r="342" spans="1:21">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -12439,7 +12442,7 @@
       <c r="T342" s="4"/>
       <c r="U342" s="4"/>
     </row>
-    <row r="343" spans="1:21">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -12462,7 +12465,7 @@
       <c r="T343" s="4"/>
       <c r="U343" s="4"/>
     </row>
-    <row r="344" spans="1:21">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -12485,7 +12488,7 @@
       <c r="T344" s="4"/>
       <c r="U344" s="4"/>
     </row>
-    <row r="345" spans="1:21">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -12508,7 +12511,7 @@
       <c r="T345" s="4"/>
       <c r="U345" s="4"/>
     </row>
-    <row r="346" spans="1:21">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -12531,7 +12534,7 @@
       <c r="T346" s="4"/>
       <c r="U346" s="4"/>
     </row>
-    <row r="347" spans="1:21">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -12554,7 +12557,7 @@
       <c r="T347" s="4"/>
       <c r="U347" s="4"/>
     </row>
-    <row r="348" spans="1:21">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -12577,7 +12580,7 @@
       <c r="T348" s="4"/>
       <c r="U348" s="4"/>
     </row>
-    <row r="349" spans="1:21">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -12600,7 +12603,7 @@
       <c r="T349" s="4"/>
       <c r="U349" s="4"/>
     </row>
-    <row r="350" spans="1:21">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -12623,7 +12626,7 @@
       <c r="T350" s="4"/>
       <c r="U350" s="4"/>
     </row>
-    <row r="351" spans="1:21">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -12646,7 +12649,7 @@
       <c r="T351" s="4"/>
       <c r="U351" s="4"/>
     </row>
-    <row r="352" spans="1:21">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -12669,7 +12672,7 @@
       <c r="T352" s="4"/>
       <c r="U352" s="4"/>
     </row>
-    <row r="353" spans="1:21">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -12692,7 +12695,7 @@
       <c r="T353" s="4"/>
       <c r="U353" s="4"/>
     </row>
-    <row r="354" spans="1:21">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -12715,7 +12718,7 @@
       <c r="T354" s="4"/>
       <c r="U354" s="4"/>
     </row>
-    <row r="355" spans="1:21">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -12738,7 +12741,7 @@
       <c r="T355" s="4"/>
       <c r="U355" s="4"/>
     </row>
-    <row r="356" spans="1:21">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -12761,7 +12764,7 @@
       <c r="T356" s="4"/>
       <c r="U356" s="4"/>
     </row>
-    <row r="357" spans="1:21">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -12784,7 +12787,7 @@
       <c r="T357" s="4"/>
       <c r="U357" s="4"/>
     </row>
-    <row r="358" spans="1:21">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -12807,7 +12810,7 @@
       <c r="T358" s="4"/>
       <c r="U358" s="4"/>
     </row>
-    <row r="359" spans="1:21">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -12830,7 +12833,7 @@
       <c r="T359" s="4"/>
       <c r="U359" s="4"/>
     </row>
-    <row r="360" spans="1:21">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -12853,7 +12856,7 @@
       <c r="T360" s="4"/>
       <c r="U360" s="4"/>
     </row>
-    <row r="361" spans="1:21">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -12876,7 +12879,7 @@
       <c r="T361" s="4"/>
       <c r="U361" s="4"/>
     </row>
-    <row r="362" spans="1:21">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -12899,7 +12902,7 @@
       <c r="T362" s="4"/>
       <c r="U362" s="4"/>
     </row>
-    <row r="363" spans="1:21">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -12922,7 +12925,7 @@
       <c r="T363" s="4"/>
       <c r="U363" s="4"/>
     </row>
-    <row r="364" spans="1:21">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -12945,7 +12948,7 @@
       <c r="T364" s="4"/>
       <c r="U364" s="4"/>
     </row>
-    <row r="365" spans="1:21">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -12968,7 +12971,7 @@
       <c r="T365" s="4"/>
       <c r="U365" s="4"/>
     </row>
-    <row r="366" spans="1:21">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -12991,7 +12994,7 @@
       <c r="T366" s="4"/>
       <c r="U366" s="4"/>
     </row>
-    <row r="367" spans="1:21">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -13014,7 +13017,7 @@
       <c r="T367" s="4"/>
       <c r="U367" s="4"/>
     </row>
-    <row r="368" spans="1:21">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -13037,7 +13040,7 @@
       <c r="T368" s="4"/>
       <c r="U368" s="4"/>
     </row>
-    <row r="369" spans="1:21">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -13060,7 +13063,7 @@
       <c r="T369" s="4"/>
       <c r="U369" s="4"/>
     </row>
-    <row r="370" spans="1:21">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -13083,7 +13086,7 @@
       <c r="T370" s="4"/>
       <c r="U370" s="4"/>
     </row>
-    <row r="371" spans="1:21">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -13106,7 +13109,7 @@
       <c r="T371" s="4"/>
       <c r="U371" s="4"/>
     </row>
-    <row r="372" spans="1:21">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -13129,7 +13132,7 @@
       <c r="T372" s="4"/>
       <c r="U372" s="4"/>
     </row>
-    <row r="373" spans="1:21">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -13152,7 +13155,7 @@
       <c r="T373" s="4"/>
       <c r="U373" s="4"/>
     </row>
-    <row r="374" spans="1:21">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -13175,7 +13178,7 @@
       <c r="T374" s="4"/>
       <c r="U374" s="4"/>
     </row>
-    <row r="375" spans="1:21">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -13198,7 +13201,7 @@
       <c r="T375" s="4"/>
       <c r="U375" s="4"/>
     </row>
-    <row r="376" spans="1:21">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -13221,7 +13224,7 @@
       <c r="T376" s="4"/>
       <c r="U376" s="4"/>
     </row>
-    <row r="377" spans="1:21">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -13244,7 +13247,7 @@
       <c r="T377" s="4"/>
       <c r="U377" s="4"/>
     </row>
-    <row r="378" spans="1:21">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -13267,7 +13270,7 @@
       <c r="T378" s="4"/>
       <c r="U378" s="4"/>
     </row>
-    <row r="379" spans="1:21">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -13290,7 +13293,7 @@
       <c r="T379" s="4"/>
       <c r="U379" s="4"/>
     </row>
-    <row r="380" spans="1:21">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -13313,7 +13316,7 @@
       <c r="T380" s="4"/>
       <c r="U380" s="4"/>
     </row>
-    <row r="381" spans="1:21">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -13336,7 +13339,7 @@
       <c r="T381" s="4"/>
       <c r="U381" s="4"/>
     </row>
-    <row r="382" spans="1:21">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -13359,7 +13362,7 @@
       <c r="T382" s="4"/>
       <c r="U382" s="4"/>
     </row>
-    <row r="383" spans="1:21">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -13382,7 +13385,7 @@
       <c r="T383" s="4"/>
       <c r="U383" s="4"/>
     </row>
-    <row r="384" spans="1:21">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -13405,7 +13408,7 @@
       <c r="T384" s="4"/>
       <c r="U384" s="4"/>
     </row>
-    <row r="385" spans="1:21">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -13428,7 +13431,7 @@
       <c r="T385" s="4"/>
       <c r="U385" s="4"/>
     </row>
-    <row r="386" spans="1:21">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -13451,7 +13454,7 @@
       <c r="T386" s="4"/>
       <c r="U386" s="4"/>
     </row>
-    <row r="387" spans="1:21">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -13474,7 +13477,7 @@
       <c r="T387" s="4"/>
       <c r="U387" s="4"/>
     </row>
-    <row r="388" spans="1:21">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -13497,7 +13500,7 @@
       <c r="T388" s="4"/>
       <c r="U388" s="4"/>
     </row>
-    <row r="389" spans="1:21">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -13520,7 +13523,7 @@
       <c r="T389" s="4"/>
       <c r="U389" s="4"/>
     </row>
-    <row r="390" spans="1:21">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -13543,7 +13546,7 @@
       <c r="T390" s="4"/>
       <c r="U390" s="4"/>
     </row>
-    <row r="391" spans="1:21">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -13566,7 +13569,7 @@
       <c r="T391" s="4"/>
       <c r="U391" s="4"/>
     </row>
-    <row r="392" spans="1:21">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -13589,7 +13592,7 @@
       <c r="T392" s="4"/>
       <c r="U392" s="4"/>
     </row>
-    <row r="393" spans="1:21">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -13612,7 +13615,7 @@
       <c r="T393" s="4"/>
       <c r="U393" s="4"/>
     </row>
-    <row r="394" spans="1:21">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -13635,7 +13638,7 @@
       <c r="T394" s="4"/>
       <c r="U394" s="4"/>
     </row>
-    <row r="395" spans="1:21">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -13658,7 +13661,7 @@
       <c r="T395" s="4"/>
       <c r="U395" s="4"/>
     </row>
-    <row r="396" spans="1:21">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -13681,7 +13684,7 @@
       <c r="T396" s="4"/>
       <c r="U396" s="4"/>
     </row>
-    <row r="397" spans="1:21">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -13704,7 +13707,7 @@
       <c r="T397" s="4"/>
       <c r="U397" s="4"/>
     </row>
-    <row r="398" spans="1:21">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -13727,7 +13730,7 @@
       <c r="T398" s="4"/>
       <c r="U398" s="4"/>
     </row>
-    <row r="399" spans="1:21">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -13750,7 +13753,7 @@
       <c r="T399" s="4"/>
       <c r="U399" s="4"/>
     </row>
-    <row r="400" spans="1:21">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -13773,7 +13776,7 @@
       <c r="T400" s="4"/>
       <c r="U400" s="4"/>
     </row>
-    <row r="401" spans="1:21">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -13796,7 +13799,7 @@
       <c r="T401" s="4"/>
       <c r="U401" s="4"/>
     </row>
-    <row r="402" spans="1:21">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -13819,7 +13822,7 @@
       <c r="T402" s="4"/>
       <c r="U402" s="4"/>
     </row>
-    <row r="403" spans="1:21">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -13842,7 +13845,7 @@
       <c r="T403" s="4"/>
       <c r="U403" s="4"/>
     </row>
-    <row r="404" spans="1:21">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -13865,7 +13868,7 @@
       <c r="T404" s="4"/>
       <c r="U404" s="4"/>
     </row>
-    <row r="405" spans="1:21">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -13888,7 +13891,7 @@
       <c r="T405" s="4"/>
       <c r="U405" s="4"/>
     </row>
-    <row r="406" spans="1:21">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -13911,7 +13914,7 @@
       <c r="T406" s="4"/>
       <c r="U406" s="4"/>
     </row>
-    <row r="407" spans="1:21">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -13934,7 +13937,7 @@
       <c r="T407" s="4"/>
       <c r="U407" s="4"/>
     </row>
-    <row r="408" spans="1:21">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -13957,7 +13960,7 @@
       <c r="T408" s="4"/>
       <c r="U408" s="4"/>
     </row>
-    <row r="409" spans="1:21">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -13980,7 +13983,7 @@
       <c r="T409" s="4"/>
       <c r="U409" s="4"/>
     </row>
-    <row r="410" spans="1:21">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -14003,7 +14006,7 @@
       <c r="T410" s="4"/>
       <c r="U410" s="4"/>
     </row>
-    <row r="411" spans="1:21">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -14026,7 +14029,7 @@
       <c r="T411" s="4"/>
       <c r="U411" s="4"/>
     </row>
-    <row r="412" spans="1:21">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -14049,7 +14052,7 @@
       <c r="T412" s="4"/>
       <c r="U412" s="4"/>
     </row>
-    <row r="413" spans="1:21">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -14072,7 +14075,7 @@
       <c r="T413" s="4"/>
       <c r="U413" s="4"/>
     </row>
-    <row r="414" spans="1:21">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -14095,7 +14098,7 @@
       <c r="T414" s="4"/>
       <c r="U414" s="4"/>
     </row>
-    <row r="415" spans="1:21">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -14118,7 +14121,7 @@
       <c r="T415" s="4"/>
       <c r="U415" s="4"/>
     </row>
-    <row r="416" spans="1:21">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -14141,7 +14144,7 @@
       <c r="T416" s="4"/>
       <c r="U416" s="4"/>
     </row>
-    <row r="417" spans="1:21">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -14164,7 +14167,7 @@
       <c r="T417" s="4"/>
       <c r="U417" s="4"/>
     </row>
-    <row r="418" spans="1:21">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -14187,7 +14190,7 @@
       <c r="T418" s="4"/>
       <c r="U418" s="4"/>
     </row>
-    <row r="419" spans="1:21">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -14210,7 +14213,7 @@
       <c r="T419" s="4"/>
       <c r="U419" s="4"/>
     </row>
-    <row r="420" spans="1:21">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -14233,7 +14236,7 @@
       <c r="T420" s="4"/>
       <c r="U420" s="4"/>
     </row>
-    <row r="421" spans="1:21">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -14256,7 +14259,7 @@
       <c r="T421" s="4"/>
       <c r="U421" s="4"/>
     </row>
-    <row r="422" spans="1:21">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -14279,7 +14282,7 @@
       <c r="T422" s="4"/>
       <c r="U422" s="4"/>
     </row>
-    <row r="423" spans="1:21">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -14302,7 +14305,7 @@
       <c r="T423" s="4"/>
       <c r="U423" s="4"/>
     </row>
-    <row r="424" spans="1:21">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -14325,7 +14328,7 @@
       <c r="T424" s="4"/>
       <c r="U424" s="4"/>
     </row>
-    <row r="425" spans="1:21">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -14348,7 +14351,7 @@
       <c r="T425" s="4"/>
       <c r="U425" s="4"/>
     </row>
-    <row r="426" spans="1:21">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -14371,7 +14374,7 @@
       <c r="T426" s="4"/>
       <c r="U426" s="4"/>
     </row>
-    <row r="427" spans="1:21">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -14394,7 +14397,7 @@
       <c r="T427" s="4"/>
       <c r="U427" s="4"/>
     </row>
-    <row r="428" spans="1:21">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -14417,7 +14420,7 @@
       <c r="T428" s="4"/>
       <c r="U428" s="4"/>
     </row>
-    <row r="429" spans="1:21">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -14440,7 +14443,7 @@
       <c r="T429" s="4"/>
       <c r="U429" s="4"/>
     </row>
-    <row r="430" spans="1:21">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -14463,7 +14466,7 @@
       <c r="T430" s="4"/>
       <c r="U430" s="4"/>
     </row>
-    <row r="431" spans="1:21">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -14486,7 +14489,7 @@
       <c r="T431" s="4"/>
       <c r="U431" s="4"/>
     </row>
-    <row r="432" spans="1:21">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -14509,7 +14512,7 @@
       <c r="T432" s="4"/>
       <c r="U432" s="4"/>
     </row>
-    <row r="433" spans="1:21">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -14544,7 +14547,7 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N31:P31"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:D28 D33:D42">
+  <conditionalFormatting sqref="D33:D42 D4:D28">
     <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",D4)))</formula>
     </cfRule>
@@ -14611,7 +14614,7 @@
           <x14:formula1>
             <xm:f>'Dropdown Keys - Do Not Delete -'!$F$3:$F$11</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D28 D33:D42</xm:sqref>
+          <xm:sqref>D33:D42 D4:D28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14630,7 +14633,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.375" style="10" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="10"/>
@@ -14640,7 +14643,7 @@
     <col min="7" max="7" width="3.375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="42" customHeight="1" thickBot="1">
+    <row r="1" spans="1:33" s="10" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="35" t="s">
         <v>77</v>
       </c>
@@ -14669,7 +14672,7 @@
       <c r="AF1" s="9"/>
       <c r="AG1" s="9"/>
     </row>
-    <row r="2" spans="1:33" ht="24.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:33" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="34" t="s">
         <v>78</v>
@@ -14684,7 +14687,7 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="35.1" customHeight="1">
+    <row r="3" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="33" t="s">
         <v>81</v>
@@ -14699,7 +14702,7 @@
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:33" ht="35.1" customHeight="1">
+    <row r="4" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="31" t="s">
         <v>84</v>
@@ -14714,7 +14717,7 @@
       </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="35.1" customHeight="1">
+    <row r="5" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="29" t="s">
@@ -14726,7 +14729,7 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="35.1" customHeight="1">
+    <row r="6" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="25"/>
@@ -14736,7 +14739,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:33" ht="35.1" customHeight="1">
+    <row r="7" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="25"/>
@@ -14746,7 +14749,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:33" ht="35.1" customHeight="1">
+    <row r="8" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="C8" s="9"/>
       <c r="E8" s="9"/>
@@ -14755,7 +14758,7 @@
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:33" ht="35.1" customHeight="1">
+    <row r="9" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -14765,7 +14768,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="35.1" customHeight="1">
+    <row r="10" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -14774,7 +14777,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:33" ht="35.1" customHeight="1">
+    <row r="11" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -14783,7 +14786,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:33" ht="16.5">
+    <row r="12" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -14792,7 +14795,7 @@
       <c r="F12" s="25"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:33" ht="16.5">
+    <row r="13" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -14801,7 +14804,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:33" ht="16.5">
+    <row r="14" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -14810,7 +14813,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:33" ht="16.5">
+    <row r="15" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -14819,7 +14822,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:33" ht="16.5">
+    <row r="16" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -14828,7 +14831,7 @@
       <c r="F16" s="25"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -14836,7 +14839,7 @@
       <c r="E17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -14844,7 +14847,7 @@
       <c r="E18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -14852,7 +14855,7 @@
       <c r="E19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -14860,7 +14863,7 @@
       <c r="E20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -14868,7 +14871,7 @@
       <c r="E21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -14876,7 +14879,7 @@
       <c r="E22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -14884,7 +14887,7 @@
       <c r="E23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -14892,7 +14895,7 @@
       <c r="E24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -14900,7 +14903,7 @@
       <c r="E25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -14908,7 +14911,7 @@
       <c r="E26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -14916,7 +14919,7 @@
       <c r="E27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -14924,7 +14927,7 @@
       <c r="E28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -14932,7 +14935,7 @@
       <c r="E29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -14940,7 +14943,7 @@
       <c r="E30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -14948,7 +14951,7 @@
       <c r="E31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5">
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -14956,203 +14959,203 @@
       <c r="E32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="E33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="E34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="E36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="E37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="E38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="E39" s="9"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="E40" s="9"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="E41" s="9"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="E42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="E43" s="9"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="E44" s="9"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="E45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="E46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="E47" s="9"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="E48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="E49" s="9"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="E50" s="9"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="E51" s="9"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="E52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="E53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="E54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="E55" s="9"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="E56" s="9"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="E57" s="9"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="E58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="E59" s="9"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="E60" s="9"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
